--- a/한국어 텍스트 AI 사전학습 모델 현황.xlsx
+++ b/한국어 텍스트 AI 사전학습 모델 현황.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ehdcj\Desktop\2022_kisti_intern\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB503E23-44C3-4652-87F8-889166CE5B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35DB3EBE-DB9D-41F2-AC22-FEE7658EE326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5800" yWindow="-21710" windowWidth="38620" windowHeight="21220" xr2:uid="{F1E2F336-D9E7-4EE4-BFE3-28F07F8BA975}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="2" xr2:uid="{F1E2F336-D9E7-4EE4-BFE3-28F07F8BA975}"/>
   </bookViews>
   <sheets>
     <sheet name="한국어 텍스트1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="196">
   <si>
     <t>모델명</t>
   </si>
@@ -493,9 +493,6 @@
     <t>비고</t>
   </si>
   <si>
-    <t>모델훈련 진행불가</t>
-  </si>
-  <si>
     <t>1. Namuwiki database - dump, Early 2020
 2. KCC(Kookmin University Corpus)
 3. Dump of Korean Wikipedia
@@ -573,9 +570,6 @@
     <t>43G</t>
   </si>
   <si>
-    <t>모델 경량화</t>
-  </si>
-  <si>
     <t>https://silverstar0727.github.io/paper%20review/2021/01/31/KoreALBERT/</t>
   </si>
   <si>
@@ -612,9 +606,6 @@
     <t>25G</t>
   </si>
   <si>
-    <t>https://github.com/sackoh/pycon-korea-2020-kb-albert/blob/master/03-Fine-tuning-ALBERT-in-TensorFlow.ipynb</t>
-  </si>
-  <si>
     <t>[12]https://github.com/teddylee777/KB-ALBERT-KO</t>
   </si>
   <si>
@@ -673,6 +664,19 @@
   </si>
   <si>
     <t>[44]https://aihub.or.kr/aidata/30760</t>
+  </si>
+  <si>
+    <t>금융용어들이 vocab에서 버려지지 않도록 vocab size를 일반적으로 사용한것보다 큰 50000개로 사용</t>
+  </si>
+  <si>
+    <t>https://github.com/sackoh/pycon-korea-2020-kb-albert</t>
+  </si>
+  <si>
+    <t>BERT-&gt; ALBERT: Cross-layer Parameter Sharing, NSP-&gt; SOP
+ALBERT의 한국어 적용 부적합을 새롭게 개선한 WOP(Word Order Prediction)으로 해결하였다.</t>
+  </si>
+  <si>
+    <t>NIPA측의 정책 변경으로 고성능컴퓨팅 지원대상에서 제외됨에 따라, 모델훈련 진행불가</t>
   </si>
 </sst>
 </file>
@@ -2018,189 +2022,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="57" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="67" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="68" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="65" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2223,77 +2044,260 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="67" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="68" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="65" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2615,8 +2619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA053810-BC50-4412-B043-FAB9C790C6E0}">
   <dimension ref="B1:T60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K49" sqref="K49"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2631,12 +2635,12 @@
   <sheetData>
     <row r="1" spans="2:20" ht="14.65" thickBot="1"/>
     <row r="2" spans="2:20" ht="14.65" thickBot="1">
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="167" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="169"/>
     </row>
     <row r="3" spans="2:20" ht="26.65" thickBot="1">
       <c r="B3" s="2" t="s">
@@ -2680,7 +2684,7 @@
       </c>
     </row>
     <row r="4" spans="2:20">
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="170" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="10"/>
@@ -2701,13 +2705,13 @@
       </c>
       <c r="K4" s="25"/>
       <c r="L4" s="25"/>
-      <c r="M4" s="87" t="s">
+      <c r="M4" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="N4" s="85"/>
+      <c r="N4" s="138"/>
     </row>
     <row r="5" spans="2:20">
-      <c r="B5" s="95"/>
+      <c r="B5" s="171"/>
       <c r="C5" s="15"/>
       <c r="D5" s="15" t="s">
         <v>6</v>
@@ -2726,13 +2730,13 @@
       </c>
       <c r="K5" s="25"/>
       <c r="L5" s="25"/>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
+      <c r="M5" s="138"/>
+      <c r="N5" s="138"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
     <row r="6" spans="2:20" ht="14.65" thickBot="1">
-      <c r="B6" s="95"/>
+      <c r="B6" s="171"/>
       <c r="C6" s="15"/>
       <c r="D6" s="15" t="s">
         <v>7</v>
@@ -2751,11 +2755,11 @@
       </c>
       <c r="K6" s="29"/>
       <c r="L6" s="64"/>
-      <c r="M6" s="86"/>
-      <c r="N6" s="86"/>
+      <c r="M6" s="139"/>
+      <c r="N6" s="139"/>
     </row>
     <row r="7" spans="2:20">
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="172" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="21"/>
@@ -2774,13 +2778,13 @@
         <v>35000</v>
       </c>
       <c r="L7" s="25"/>
-      <c r="M7" s="87" t="s">
+      <c r="M7" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="N7" s="87"/>
+      <c r="N7" s="137"/>
     </row>
     <row r="8" spans="2:20">
-      <c r="B8" s="97"/>
+      <c r="B8" s="173"/>
       <c r="C8" s="25"/>
       <c r="D8" s="26" t="s">
         <v>15</v>
@@ -2795,11 +2799,11 @@
       <c r="J8" s="28"/>
       <c r="K8" s="25"/>
       <c r="L8" s="25"/>
-      <c r="M8" s="85"/>
-      <c r="N8" s="85"/>
+      <c r="M8" s="138"/>
+      <c r="N8" s="138"/>
     </row>
     <row r="9" spans="2:20">
-      <c r="B9" s="97"/>
+      <c r="B9" s="173"/>
       <c r="C9" s="25"/>
       <c r="D9" s="26" t="s">
         <v>6</v>
@@ -2814,11 +2818,11 @@
       <c r="J9" s="28"/>
       <c r="K9" s="25"/>
       <c r="L9" s="25"/>
-      <c r="M9" s="85"/>
-      <c r="N9" s="85"/>
+      <c r="M9" s="138"/>
+      <c r="N9" s="138"/>
     </row>
     <row r="10" spans="2:20">
-      <c r="B10" s="97"/>
+      <c r="B10" s="173"/>
       <c r="C10" s="25"/>
       <c r="D10" s="26" t="s">
         <v>17</v>
@@ -2835,11 +2839,11 @@
         <v>32200</v>
       </c>
       <c r="L10" s="25"/>
-      <c r="M10" s="85"/>
-      <c r="N10" s="85"/>
+      <c r="M10" s="138"/>
+      <c r="N10" s="138"/>
     </row>
     <row r="11" spans="2:20" ht="14.65" thickBot="1">
-      <c r="B11" s="98"/>
+      <c r="B11" s="174"/>
       <c r="C11" s="29"/>
       <c r="D11" s="30" t="s">
         <v>18</v>
@@ -2854,23 +2858,23 @@
       <c r="J11" s="32"/>
       <c r="K11" s="25"/>
       <c r="L11" s="25"/>
-      <c r="M11" s="86"/>
-      <c r="N11" s="86"/>
+      <c r="M11" s="139"/>
+      <c r="N11" s="139"/>
     </row>
     <row r="12" spans="2:20" ht="14.25" customHeight="1">
-      <c r="B12" s="107" t="s">
+      <c r="B12" s="132" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="110" t="s">
+      <c r="C12" s="156" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="103" t="s">
+      <c r="D12" s="135" t="s">
         <v>86</v>
       </c>
-      <c r="E12" s="125" t="s">
+      <c r="E12" s="129" t="s">
         <v>81</v>
       </c>
-      <c r="F12" s="113" t="s">
+      <c r="F12" s="125" t="s">
         <v>38</v>
       </c>
       <c r="G12" s="33">
@@ -2882,65 +2886,65 @@
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
       <c r="K12" s="21"/>
-      <c r="L12" s="82" t="s">
+      <c r="L12" s="149" t="s">
         <v>136</v>
       </c>
-      <c r="M12" s="87" t="s">
+      <c r="M12" s="137" t="s">
         <v>30</v>
       </c>
-      <c r="N12" s="87"/>
+      <c r="N12" s="137"/>
       <c r="O12" s="66"/>
     </row>
     <row r="13" spans="2:20">
-      <c r="B13" s="108"/>
-      <c r="C13" s="120"/>
-      <c r="D13" s="119"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="114"/>
-      <c r="G13" s="121">
+      <c r="B13" s="133"/>
+      <c r="C13" s="153"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="126"/>
+      <c r="G13" s="159">
         <v>12</v>
       </c>
-      <c r="H13" s="123">
+      <c r="H13" s="152">
         <v>12</v>
       </c>
       <c r="I13" s="25"/>
       <c r="J13" s="25"/>
       <c r="K13" s="25"/>
-      <c r="L13" s="83"/>
-      <c r="M13" s="85"/>
-      <c r="N13" s="85"/>
+      <c r="L13" s="150"/>
+      <c r="M13" s="138"/>
+      <c r="N13" s="138"/>
     </row>
     <row r="14" spans="2:20" ht="35.25" thickBot="1">
-      <c r="B14" s="109"/>
+      <c r="B14" s="134"/>
       <c r="C14" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="104"/>
-      <c r="E14" s="135"/>
-      <c r="F14" s="115"/>
-      <c r="G14" s="118"/>
-      <c r="H14" s="112"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="130"/>
+      <c r="F14" s="127"/>
+      <c r="G14" s="155"/>
+      <c r="H14" s="157"/>
       <c r="I14" s="29"/>
       <c r="J14" s="29"/>
       <c r="K14" s="29"/>
-      <c r="L14" s="84"/>
-      <c r="M14" s="86"/>
-      <c r="N14" s="86"/>
+      <c r="L14" s="151"/>
+      <c r="M14" s="139"/>
+      <c r="N14" s="139"/>
     </row>
     <row r="15" spans="2:20">
-      <c r="B15" s="101" t="s">
+      <c r="B15" s="163" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="103" t="s">
+      <c r="D15" s="135" t="s">
         <v>87</v>
       </c>
-      <c r="E15" s="105" t="s">
+      <c r="E15" s="165" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="99" t="s">
+      <c r="F15" s="161" t="s">
         <v>38</v>
       </c>
       <c r="G15" s="21">
@@ -2955,19 +2959,19 @@
         <v>30349</v>
       </c>
       <c r="L15" s="36"/>
-      <c r="M15" s="87" t="s">
+      <c r="M15" s="137" t="s">
         <v>39</v>
       </c>
-      <c r="N15" s="87"/>
+      <c r="N15" s="137"/>
     </row>
     <row r="16" spans="2:20" ht="14.65" thickBot="1">
-      <c r="B16" s="102"/>
+      <c r="B16" s="164"/>
       <c r="C16" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="104"/>
-      <c r="E16" s="106"/>
-      <c r="F16" s="100"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="166"/>
+      <c r="F16" s="162"/>
       <c r="G16" s="29">
         <v>12</v>
       </c>
@@ -2980,8 +2984,8 @@
         <v>30797</v>
       </c>
       <c r="L16" s="37"/>
-      <c r="M16" s="86"/>
-      <c r="N16" s="86"/>
+      <c r="M16" s="139"/>
+      <c r="N16" s="139"/>
     </row>
     <row r="17" spans="2:14" ht="14.25" customHeight="1" thickBot="1">
       <c r="B17" s="38" t="s">
@@ -3017,82 +3021,82 @@
       <c r="N17" s="44"/>
     </row>
     <row r="18" spans="2:14">
-      <c r="B18" s="107" t="s">
+      <c r="B18" s="132" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="110" t="s">
+      <c r="C18" s="156" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="103" t="s">
+      <c r="D18" s="135" t="s">
         <v>84</v>
       </c>
-      <c r="E18" s="127" t="s">
+      <c r="E18" s="140" t="s">
         <v>77</v>
       </c>
-      <c r="F18" s="113" t="s">
+      <c r="F18" s="125" t="s">
         <v>38</v>
       </c>
-      <c r="G18" s="116">
+      <c r="G18" s="154">
         <v>12</v>
       </c>
-      <c r="H18" s="110">
+      <c r="H18" s="156">
         <v>12</v>
       </c>
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
       <c r="K18" s="21"/>
-      <c r="L18" s="82" t="s">
-        <v>153</v>
-      </c>
-      <c r="M18" s="87" t="s">
+      <c r="L18" s="149" t="s">
+        <v>152</v>
+      </c>
+      <c r="M18" s="137" t="s">
         <v>67</v>
       </c>
-      <c r="N18" s="87"/>
+      <c r="N18" s="137"/>
     </row>
     <row r="19" spans="2:14">
-      <c r="B19" s="108"/>
-      <c r="C19" s="111"/>
-      <c r="D19" s="119"/>
-      <c r="E19" s="128"/>
-      <c r="F19" s="114"/>
-      <c r="G19" s="117"/>
-      <c r="H19" s="111"/>
+      <c r="B19" s="133"/>
+      <c r="C19" s="109"/>
+      <c r="D19" s="123"/>
+      <c r="E19" s="141"/>
+      <c r="F19" s="126"/>
+      <c r="G19" s="160"/>
+      <c r="H19" s="109"/>
       <c r="I19" s="25"/>
       <c r="J19" s="25"/>
       <c r="K19" s="25"/>
-      <c r="L19" s="83"/>
-      <c r="M19" s="85"/>
-      <c r="N19" s="85"/>
+      <c r="L19" s="150"/>
+      <c r="M19" s="138"/>
+      <c r="N19" s="138"/>
     </row>
     <row r="20" spans="2:14" ht="14.25" customHeight="1" thickBot="1">
-      <c r="B20" s="109"/>
-      <c r="C20" s="112"/>
-      <c r="D20" s="104"/>
-      <c r="E20" s="129"/>
-      <c r="F20" s="115"/>
-      <c r="G20" s="118"/>
-      <c r="H20" s="112"/>
+      <c r="B20" s="134"/>
+      <c r="C20" s="157"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="142"/>
+      <c r="F20" s="127"/>
+      <c r="G20" s="155"/>
+      <c r="H20" s="157"/>
       <c r="I20" s="29"/>
       <c r="J20" s="29"/>
       <c r="K20" s="29"/>
-      <c r="L20" s="84"/>
-      <c r="M20" s="86"/>
-      <c r="N20" s="86"/>
+      <c r="L20" s="151"/>
+      <c r="M20" s="139"/>
+      <c r="N20" s="139"/>
     </row>
     <row r="21" spans="2:14" ht="326.75" customHeight="1">
-      <c r="B21" s="107" t="s">
+      <c r="B21" s="132" t="s">
         <v>47</v>
       </c>
       <c r="C21" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="130" t="s">
-        <v>141</v>
-      </c>
-      <c r="E21" s="124" t="s">
+      <c r="D21" s="143" t="s">
+        <v>140</v>
+      </c>
+      <c r="E21" s="148" t="s">
         <v>78</v>
       </c>
-      <c r="F21" s="113" t="s">
+      <c r="F21" s="125" t="s">
         <v>49</v>
       </c>
       <c r="G21" s="33">
@@ -3105,21 +3109,21 @@
       <c r="J21" s="21"/>
       <c r="K21" s="21"/>
       <c r="L21" s="21"/>
-      <c r="M21" s="87" t="s">
+      <c r="M21" s="137" t="s">
         <v>68</v>
       </c>
-      <c r="N21" s="87" t="s">
-        <v>140</v>
+      <c r="N21" s="137" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="2:14" ht="28.15" customHeight="1">
-      <c r="B22" s="108"/>
+      <c r="B22" s="133"/>
       <c r="C22" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="131"/>
-      <c r="E22" s="125"/>
-      <c r="F22" s="114"/>
+      <c r="D22" s="144"/>
+      <c r="E22" s="129"/>
+      <c r="F22" s="126"/>
       <c r="G22" s="46">
         <v>24</v>
       </c>
@@ -3130,17 +3134,17 @@
       <c r="J22" s="25"/>
       <c r="K22" s="25"/>
       <c r="L22" s="25"/>
-      <c r="M22" s="85"/>
-      <c r="N22" s="85"/>
+      <c r="M22" s="138"/>
+      <c r="N22" s="138"/>
     </row>
     <row r="23" spans="2:14" ht="19.149999999999999" customHeight="1">
-      <c r="B23" s="108"/>
+      <c r="B23" s="133"/>
       <c r="C23" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="131"/>
-      <c r="E23" s="125"/>
-      <c r="F23" s="114"/>
+      <c r="D23" s="144"/>
+      <c r="E23" s="129"/>
+      <c r="F23" s="126"/>
       <c r="G23" s="46">
         <v>24</v>
       </c>
@@ -3151,17 +3155,17 @@
       <c r="J23" s="25"/>
       <c r="K23" s="25"/>
       <c r="L23" s="25"/>
-      <c r="M23" s="85"/>
-      <c r="N23" s="85"/>
+      <c r="M23" s="138"/>
+      <c r="N23" s="138"/>
     </row>
     <row r="24" spans="2:14" ht="14.65" thickBot="1">
-      <c r="B24" s="109"/>
+      <c r="B24" s="134"/>
       <c r="C24" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="132"/>
-      <c r="E24" s="135"/>
-      <c r="F24" s="115"/>
+      <c r="D24" s="145"/>
+      <c r="E24" s="130"/>
+      <c r="F24" s="127"/>
       <c r="G24" s="47">
         <v>24</v>
       </c>
@@ -3172,195 +3176,195 @@
       <c r="J24" s="29"/>
       <c r="K24" s="29"/>
       <c r="L24" s="29"/>
-      <c r="M24" s="86"/>
-      <c r="N24" s="86"/>
+      <c r="M24" s="139"/>
+      <c r="N24" s="139"/>
     </row>
     <row r="25" spans="2:14" ht="14.25" customHeight="1">
-      <c r="B25" s="107" t="s">
+      <c r="B25" s="132" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="110" t="s">
+      <c r="C25" s="156" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="133" t="s">
+      <c r="D25" s="146" t="s">
         <v>85</v>
       </c>
-      <c r="E25" s="124" t="s">
+      <c r="E25" s="148" t="s">
         <v>79</v>
       </c>
-      <c r="F25" s="113" t="s">
+      <c r="F25" s="125" t="s">
         <v>54</v>
       </c>
-      <c r="G25" s="116">
+      <c r="G25" s="154">
         <v>6</v>
       </c>
-      <c r="H25" s="110">
+      <c r="H25" s="156">
         <v>16</v>
       </c>
       <c r="I25" s="21"/>
       <c r="J25" s="21"/>
-      <c r="K25" s="88">
+      <c r="K25" s="119">
         <v>30000</v>
       </c>
       <c r="L25" s="36"/>
-      <c r="M25" s="87" t="s">
+      <c r="M25" s="137" t="s">
         <v>69</v>
       </c>
-      <c r="N25" s="87"/>
+      <c r="N25" s="137"/>
     </row>
     <row r="26" spans="2:14" ht="14.65" thickBot="1">
-      <c r="B26" s="109"/>
-      <c r="C26" s="112"/>
-      <c r="D26" s="134"/>
-      <c r="E26" s="135"/>
-      <c r="F26" s="115"/>
-      <c r="G26" s="118"/>
-      <c r="H26" s="112"/>
+      <c r="B26" s="134"/>
+      <c r="C26" s="157"/>
+      <c r="D26" s="147"/>
+      <c r="E26" s="130"/>
+      <c r="F26" s="127"/>
+      <c r="G26" s="155"/>
+      <c r="H26" s="157"/>
       <c r="I26" s="29"/>
       <c r="J26" s="29"/>
-      <c r="K26" s="90"/>
+      <c r="K26" s="121"/>
       <c r="L26" s="37"/>
-      <c r="M26" s="86"/>
-      <c r="N26" s="86"/>
+      <c r="M26" s="139"/>
+      <c r="N26" s="139"/>
     </row>
     <row r="27" spans="2:14" ht="14.25" customHeight="1">
-      <c r="B27" s="107" t="s">
+      <c r="B27" s="132" t="s">
         <v>55</v>
       </c>
       <c r="C27" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="103" t="s">
+      <c r="D27" s="135" t="s">
         <v>88</v>
       </c>
-      <c r="E27" s="124" t="s">
+      <c r="E27" s="148" t="s">
         <v>80</v>
       </c>
-      <c r="F27" s="113" t="s">
+      <c r="F27" s="125" t="s">
         <v>54</v>
       </c>
-      <c r="G27" s="116">
+      <c r="G27" s="154">
         <v>8</v>
       </c>
-      <c r="H27" s="110">
+      <c r="H27" s="156">
         <v>8</v>
       </c>
       <c r="I27" s="21"/>
       <c r="J27" s="21"/>
-      <c r="K27" s="88">
+      <c r="K27" s="119">
         <v>64000</v>
       </c>
       <c r="L27" s="36"/>
-      <c r="M27" s="87" t="s">
+      <c r="M27" s="137" t="s">
         <v>70</v>
       </c>
-      <c r="N27" s="87"/>
+      <c r="N27" s="137"/>
     </row>
     <row r="28" spans="2:14">
-      <c r="B28" s="108"/>
+      <c r="B28" s="133"/>
       <c r="C28" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="119"/>
-      <c r="E28" s="125"/>
-      <c r="F28" s="114"/>
-      <c r="G28" s="122"/>
-      <c r="H28" s="120"/>
+      <c r="D28" s="123"/>
+      <c r="E28" s="129"/>
+      <c r="F28" s="126"/>
+      <c r="G28" s="158"/>
+      <c r="H28" s="153"/>
       <c r="I28" s="25"/>
       <c r="J28" s="25"/>
-      <c r="K28" s="89"/>
+      <c r="K28" s="120"/>
       <c r="L28" s="63"/>
-      <c r="M28" s="85"/>
-      <c r="N28" s="85"/>
+      <c r="M28" s="138"/>
+      <c r="N28" s="138"/>
     </row>
     <row r="29" spans="2:14" ht="26.25" customHeight="1">
-      <c r="B29" s="108"/>
+      <c r="B29" s="133"/>
       <c r="C29" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="119"/>
-      <c r="E29" s="125"/>
-      <c r="F29" s="114"/>
-      <c r="G29" s="121">
+      <c r="D29" s="123"/>
+      <c r="E29" s="129"/>
+      <c r="F29" s="126"/>
+      <c r="G29" s="159">
         <v>12</v>
       </c>
-      <c r="H29" s="123">
+      <c r="H29" s="152">
         <v>12</v>
       </c>
       <c r="I29" s="25"/>
       <c r="J29" s="25"/>
-      <c r="K29" s="89"/>
+      <c r="K29" s="120"/>
       <c r="L29" s="63"/>
-      <c r="M29" s="85"/>
-      <c r="N29" s="85"/>
+      <c r="M29" s="138"/>
+      <c r="N29" s="138"/>
     </row>
     <row r="30" spans="2:14">
-      <c r="B30" s="108"/>
+      <c r="B30" s="133"/>
       <c r="C30" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="D30" s="119"/>
-      <c r="E30" s="125"/>
-      <c r="F30" s="114"/>
-      <c r="G30" s="122"/>
-      <c r="H30" s="120"/>
+      <c r="D30" s="123"/>
+      <c r="E30" s="129"/>
+      <c r="F30" s="126"/>
+      <c r="G30" s="158"/>
+      <c r="H30" s="153"/>
       <c r="I30" s="25"/>
       <c r="J30" s="25"/>
-      <c r="K30" s="89"/>
+      <c r="K30" s="120"/>
       <c r="L30" s="63"/>
-      <c r="M30" s="85"/>
-      <c r="N30" s="85"/>
+      <c r="M30" s="138"/>
+      <c r="N30" s="138"/>
     </row>
     <row r="31" spans="2:14">
-      <c r="B31" s="108"/>
+      <c r="B31" s="133"/>
       <c r="C31" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="119"/>
-      <c r="E31" s="125"/>
-      <c r="F31" s="114"/>
-      <c r="G31" s="121">
+      <c r="D31" s="123"/>
+      <c r="E31" s="129"/>
+      <c r="F31" s="126"/>
+      <c r="G31" s="159">
         <v>24</v>
       </c>
-      <c r="H31" s="123">
+      <c r="H31" s="152">
         <v>16</v>
       </c>
       <c r="I31" s="25"/>
       <c r="J31" s="25"/>
-      <c r="K31" s="89"/>
+      <c r="K31" s="120"/>
       <c r="L31" s="63"/>
-      <c r="M31" s="85"/>
-      <c r="N31" s="85"/>
+      <c r="M31" s="138"/>
+      <c r="N31" s="138"/>
     </row>
     <row r="32" spans="2:14">
-      <c r="B32" s="108"/>
+      <c r="B32" s="133"/>
       <c r="C32" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="D32" s="126"/>
-      <c r="E32" s="125"/>
-      <c r="F32" s="114"/>
-      <c r="G32" s="122"/>
-      <c r="H32" s="120"/>
+      <c r="D32" s="136"/>
+      <c r="E32" s="129"/>
+      <c r="F32" s="126"/>
+      <c r="G32" s="158"/>
+      <c r="H32" s="153"/>
       <c r="I32" s="25"/>
       <c r="J32" s="25"/>
-      <c r="K32" s="89"/>
+      <c r="K32" s="120"/>
       <c r="L32" s="63"/>
-      <c r="M32" s="85"/>
-      <c r="N32" s="85"/>
+      <c r="M32" s="138"/>
+      <c r="N32" s="138"/>
     </row>
     <row r="33" spans="2:14" ht="23.25">
-      <c r="B33" s="108"/>
+      <c r="B33" s="133"/>
       <c r="C33" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="D33" s="139" t="s">
+      <c r="D33" s="131" t="s">
         <v>61</v>
       </c>
-      <c r="E33" s="138" t="s">
+      <c r="E33" s="128" t="s">
         <v>82</v>
       </c>
-      <c r="F33" s="114"/>
+      <c r="F33" s="126"/>
       <c r="G33" s="46">
         <v>8</v>
       </c>
@@ -3369,19 +3373,19 @@
       </c>
       <c r="I33" s="25"/>
       <c r="J33" s="25"/>
-      <c r="K33" s="89"/>
+      <c r="K33" s="120"/>
       <c r="L33" s="63"/>
-      <c r="M33" s="85"/>
-      <c r="N33" s="85"/>
+      <c r="M33" s="138"/>
+      <c r="N33" s="138"/>
     </row>
     <row r="34" spans="2:14" ht="23.25">
-      <c r="B34" s="108"/>
+      <c r="B34" s="133"/>
       <c r="C34" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="D34" s="119"/>
-      <c r="E34" s="125"/>
-      <c r="F34" s="114"/>
+      <c r="D34" s="123"/>
+      <c r="E34" s="129"/>
+      <c r="F34" s="126"/>
       <c r="G34" s="46">
         <v>12</v>
       </c>
@@ -3390,19 +3394,19 @@
       </c>
       <c r="I34" s="25"/>
       <c r="J34" s="25"/>
-      <c r="K34" s="89"/>
+      <c r="K34" s="120"/>
       <c r="L34" s="63"/>
-      <c r="M34" s="85"/>
-      <c r="N34" s="85"/>
+      <c r="M34" s="138"/>
+      <c r="N34" s="138"/>
     </row>
     <row r="35" spans="2:14" ht="23.65" thickBot="1">
-      <c r="B35" s="109"/>
+      <c r="B35" s="134"/>
       <c r="C35" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="104"/>
-      <c r="E35" s="135"/>
-      <c r="F35" s="115"/>
+      <c r="D35" s="110"/>
+      <c r="E35" s="130"/>
+      <c r="F35" s="127"/>
       <c r="G35" s="47">
         <v>24</v>
       </c>
@@ -3411,23 +3415,23 @@
       </c>
       <c r="I35" s="29"/>
       <c r="J35" s="29"/>
-      <c r="K35" s="90"/>
+      <c r="K35" s="121"/>
       <c r="L35" s="37"/>
-      <c r="M35" s="86"/>
-      <c r="N35" s="86"/>
+      <c r="M35" s="139"/>
+      <c r="N35" s="139"/>
     </row>
     <row r="36" spans="2:14" ht="70.150000000000006" thickBot="1">
       <c r="B36" s="67" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C36" s="68" t="s">
         <v>42</v>
       </c>
       <c r="D36" s="78" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E36" s="69" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F36" s="70" t="s">
         <v>42</v>
@@ -3454,221 +3458,200 @@
         <v>91</v>
       </c>
       <c r="N36" s="74" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37" spans="2:14" ht="93">
-      <c r="B37" s="161" t="s">
+      <c r="B37" s="101" t="s">
+        <v>158</v>
+      </c>
+      <c r="C37" s="93" t="s">
+        <v>165</v>
+      </c>
+      <c r="D37" s="75" t="s">
+        <v>164</v>
+      </c>
+      <c r="E37" s="125" t="s">
+        <v>160</v>
+      </c>
+      <c r="F37" s="116"/>
+      <c r="G37" s="91">
+        <v>12</v>
+      </c>
+      <c r="H37" s="92">
+        <v>12</v>
+      </c>
+      <c r="I37" s="107">
+        <v>325000000</v>
+      </c>
+      <c r="J37" s="116"/>
+      <c r="K37" s="119">
+        <v>32000</v>
+      </c>
+      <c r="L37" s="105" t="s">
+        <v>174</v>
+      </c>
+      <c r="M37" s="111" t="s">
+        <v>100</v>
+      </c>
+      <c r="N37" s="99" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" ht="33" customHeight="1">
+      <c r="B38" s="124"/>
+      <c r="C38" s="126" t="s">
+        <v>166</v>
+      </c>
+      <c r="D38" s="76" t="s">
+        <v>163</v>
+      </c>
+      <c r="E38" s="126"/>
+      <c r="F38" s="117"/>
+      <c r="G38" s="109">
+        <v>18</v>
+      </c>
+      <c r="H38" s="123">
+        <v>12</v>
+      </c>
+      <c r="I38" s="115"/>
+      <c r="J38" s="117"/>
+      <c r="K38" s="120"/>
+      <c r="L38" s="122"/>
+      <c r="M38" s="112"/>
+      <c r="N38" s="114"/>
+    </row>
+    <row r="39" spans="2:14" ht="23.65" thickBot="1">
+      <c r="B39" s="102"/>
+      <c r="C39" s="127"/>
+      <c r="D39" s="90" t="s">
+        <v>162</v>
+      </c>
+      <c r="E39" s="127"/>
+      <c r="F39" s="118"/>
+      <c r="G39" s="110"/>
+      <c r="H39" s="110"/>
+      <c r="I39" s="108"/>
+      <c r="J39" s="118"/>
+      <c r="K39" s="121"/>
+      <c r="L39" s="106"/>
+      <c r="M39" s="113"/>
+      <c r="N39" s="100"/>
+    </row>
+    <row r="40" spans="2:14" ht="35.25" customHeight="1">
+      <c r="B40" s="101" t="s">
         <v>159</v>
       </c>
-      <c r="C37" s="164" t="s">
-        <v>167</v>
-      </c>
-      <c r="D37" s="75" t="s">
-        <v>166</v>
-      </c>
-      <c r="E37" s="113" t="s">
-        <v>161</v>
-      </c>
-      <c r="F37" s="136"/>
-      <c r="G37" s="159">
-        <v>12</v>
-      </c>
-      <c r="H37" s="160">
-        <v>12</v>
-      </c>
-      <c r="I37" s="154">
-        <v>325000000</v>
-      </c>
-      <c r="J37" s="136"/>
-      <c r="K37" s="88">
-        <v>32000</v>
-      </c>
-      <c r="L37" s="172" t="s">
-        <v>177</v>
-      </c>
-      <c r="M37" s="151" t="s">
-        <v>100</v>
-      </c>
-      <c r="N37" s="175" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" ht="33" customHeight="1">
-      <c r="B38" s="162"/>
-      <c r="C38" s="114" t="s">
-        <v>168</v>
-      </c>
-      <c r="D38" s="76" t="s">
-        <v>165</v>
-      </c>
-      <c r="E38" s="114"/>
-      <c r="F38" s="137"/>
-      <c r="G38" s="111">
-        <v>18</v>
-      </c>
-      <c r="H38" s="119">
-        <v>12</v>
-      </c>
-      <c r="I38" s="155"/>
-      <c r="J38" s="137"/>
-      <c r="K38" s="89"/>
-      <c r="L38" s="173"/>
-      <c r="M38" s="152"/>
-      <c r="N38" s="176"/>
-    </row>
-    <row r="39" spans="2:14" ht="23.65" thickBot="1">
-      <c r="B39" s="163"/>
-      <c r="C39" s="115"/>
-      <c r="D39" s="157" t="s">
-        <v>164</v>
-      </c>
-      <c r="E39" s="115"/>
-      <c r="F39" s="158"/>
-      <c r="G39" s="104"/>
-      <c r="H39" s="104"/>
-      <c r="I39" s="156"/>
-      <c r="J39" s="158"/>
-      <c r="K39" s="90"/>
-      <c r="L39" s="174"/>
-      <c r="M39" s="153"/>
-      <c r="N39" s="177"/>
-    </row>
-    <row r="40" spans="2:14" ht="35.25" customHeight="1">
-      <c r="B40" s="161" t="s">
-        <v>160</v>
-      </c>
-      <c r="C40" s="166" t="s">
+      <c r="C40" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="164" t="s">
+      <c r="D40" s="93" t="s">
+        <v>169</v>
+      </c>
+      <c r="E40" s="77" t="s">
         <v>171</v>
       </c>
-      <c r="E40" s="77" t="s">
-        <v>173</v>
-      </c>
-      <c r="F40" s="168"/>
-      <c r="G40" s="168"/>
-      <c r="H40" s="168"/>
-      <c r="I40" s="168"/>
-      <c r="J40" s="170"/>
-      <c r="K40" s="172">
+      <c r="F40" s="95"/>
+      <c r="G40" s="95"/>
+      <c r="H40" s="95"/>
+      <c r="I40" s="95"/>
+      <c r="J40" s="97"/>
+      <c r="K40" s="105">
         <v>50000</v>
       </c>
-      <c r="L40" s="172" t="s">
-        <v>178</v>
-      </c>
-      <c r="M40" s="154" t="s">
-        <v>179</v>
-      </c>
-      <c r="N40" s="175"/>
+      <c r="L40" s="105" t="s">
+        <v>175</v>
+      </c>
+      <c r="M40" s="107" t="s">
+        <v>176</v>
+      </c>
+      <c r="N40" s="99" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="41" spans="2:14" ht="35.25" thickBot="1">
-      <c r="B41" s="163"/>
-      <c r="C41" s="167"/>
-      <c r="D41" s="157" t="s">
-        <v>172</v>
-      </c>
-      <c r="E41" s="165" t="s">
+      <c r="B41" s="102"/>
+      <c r="C41" s="104"/>
+      <c r="D41" s="90" t="s">
+        <v>170</v>
+      </c>
+      <c r="E41" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="F41" s="169"/>
-      <c r="G41" s="169"/>
-      <c r="H41" s="169"/>
-      <c r="I41" s="169"/>
-      <c r="J41" s="171"/>
-      <c r="K41" s="174"/>
-      <c r="L41" s="174"/>
-      <c r="M41" s="156"/>
-      <c r="N41" s="177"/>
+      <c r="F41" s="96"/>
+      <c r="G41" s="96"/>
+      <c r="H41" s="96"/>
+      <c r="I41" s="96"/>
+      <c r="J41" s="98"/>
+      <c r="K41" s="106"/>
+      <c r="L41" s="106"/>
+      <c r="M41" s="108"/>
+      <c r="N41" s="100"/>
     </row>
     <row r="51" spans="3:4">
-      <c r="C51" s="51" t="s">
-        <v>42</v>
-      </c>
+      <c r="C51" s="51"/>
       <c r="D51" s="52"/>
     </row>
     <row r="52" spans="3:4">
-      <c r="C52" s="51" t="s">
-        <v>42</v>
-      </c>
+      <c r="C52" s="51"/>
     </row>
     <row r="53" spans="3:4">
-      <c r="C53" s="51" t="s">
-        <v>42</v>
-      </c>
+      <c r="C53" s="51"/>
     </row>
     <row r="54" spans="3:4">
-      <c r="C54" s="51" t="s">
-        <v>42</v>
-      </c>
+      <c r="C54" s="51"/>
     </row>
     <row r="55" spans="3:4">
-      <c r="C55" s="51" t="s">
-        <v>42</v>
-      </c>
+      <c r="C55" s="51"/>
     </row>
     <row r="56" spans="3:4">
-      <c r="C56" s="51" t="s">
-        <v>42</v>
-      </c>
+      <c r="C56" s="51"/>
     </row>
     <row r="57" spans="3:4">
-      <c r="C57" s="51" t="s">
-        <v>42</v>
-      </c>
+      <c r="C57" s="51"/>
     </row>
     <row r="58" spans="3:4">
-      <c r="C58" s="51" t="s">
-        <v>42</v>
-      </c>
+      <c r="C58" s="51"/>
     </row>
     <row r="59" spans="3:4">
-      <c r="C59" s="51" t="s">
-        <v>42</v>
-      </c>
+      <c r="C59" s="51"/>
     </row>
     <row r="60" spans="3:4">
-      <c r="C60" s="51" t="s">
-        <v>42</v>
-      </c>
+      <c r="C60" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="N40:N41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="M37:M39"/>
-    <mergeCell ref="N37:N39"/>
-    <mergeCell ref="I37:I39"/>
-    <mergeCell ref="J37:J39"/>
-    <mergeCell ref="K37:K39"/>
-    <mergeCell ref="L37:L39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="F37:F39"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="B27:B35"/>
-    <mergeCell ref="F27:F35"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D27:D32"/>
-    <mergeCell ref="M12:M14"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="M21:M24"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N7:N11"/>
+    <mergeCell ref="N12:N14"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="N18:N20"/>
+    <mergeCell ref="N21:N24"/>
+    <mergeCell ref="N25:N26"/>
+    <mergeCell ref="N27:N35"/>
+    <mergeCell ref="K27:K35"/>
+    <mergeCell ref="M27:M35"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="M7:M11"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="E27:E32"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="D18:D20"/>
     <mergeCell ref="H31:H32"/>
     <mergeCell ref="G25:G26"/>
     <mergeCell ref="H25:H26"/>
@@ -3685,38 +3668,41 @@
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="F25:F26"/>
     <mergeCell ref="H27:H28"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="E27:E32"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="M12:M14"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="M21:M24"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L18:L20"/>
     <mergeCell ref="F15:F16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="M7:M11"/>
-    <mergeCell ref="N18:N20"/>
-    <mergeCell ref="N21:N24"/>
-    <mergeCell ref="N25:N26"/>
-    <mergeCell ref="N27:N35"/>
-    <mergeCell ref="K27:K35"/>
-    <mergeCell ref="M27:M35"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="N7:N11"/>
-    <mergeCell ref="N12:N14"/>
-    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="B27:B35"/>
+    <mergeCell ref="F27:F35"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D27:D32"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="M37:M39"/>
+    <mergeCell ref="N37:N39"/>
+    <mergeCell ref="I37:I39"/>
+    <mergeCell ref="J37:J39"/>
+    <mergeCell ref="K37:K39"/>
+    <mergeCell ref="L37:L39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="M40:M41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3728,7 +3714,7 @@
   <dimension ref="B1:L18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3738,12 +3724,12 @@
   <sheetData>
     <row r="1" spans="2:12" ht="14.65" thickBot="1"/>
     <row r="2" spans="2:12" ht="14.65" thickBot="1">
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="167" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="169"/>
     </row>
     <row r="3" spans="2:12" ht="26.65" thickBot="1">
       <c r="B3" s="58" t="s">
@@ -3803,7 +3789,7 @@
       <c r="K4" s="39"/>
       <c r="L4" s="44"/>
     </row>
-    <row r="5" spans="2:12" ht="70.150000000000006" thickBot="1">
+    <row r="5" spans="2:12" ht="58.5" thickBot="1">
       <c r="B5" s="53" t="s">
         <v>92</v>
       </c>
@@ -4110,8 +4096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C8036DB-777E-4FB4-935F-DC1F7063C586}">
   <dimension ref="B2:B44"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4168,92 +4154,92 @@
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -4268,8 +4254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA4A696-3D9C-4B93-91AE-5328625891B1}">
   <dimension ref="C1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4280,7 +4266,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:4" ht="14.65" thickBot="1">
-      <c r="C1" s="150"/>
+      <c r="C1" s="89"/>
     </row>
     <row r="2" spans="3:4" ht="14.65" thickBot="1">
       <c r="C2" s="81" t="s">
@@ -4291,95 +4277,95 @@
       </c>
     </row>
     <row r="3" spans="3:4" ht="338.65" customHeight="1" thickBot="1">
-      <c r="C3" s="149" t="s">
+      <c r="C3" s="88" t="s">
         <v>136</v>
       </c>
-      <c r="D3" s="143" t="s">
+      <c r="D3" s="82" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="4" spans="3:4">
-      <c r="C4" s="140" t="s">
+      <c r="C4" s="175" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="83" t="s">
         <v>142</v>
       </c>
-      <c r="D4" s="144" t="s">
+    </row>
+    <row r="5" spans="3:4">
+      <c r="C5" s="176"/>
+      <c r="D5" s="84" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="3:4">
-      <c r="C5" s="141"/>
-      <c r="D5" s="145" t="s">
+    <row r="6" spans="3:4">
+      <c r="C6" s="176"/>
+      <c r="D6" s="84" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="3:4">
-      <c r="C6" s="141"/>
-      <c r="D6" s="145" t="s">
+    <row r="7" spans="3:4">
+      <c r="C7" s="176"/>
+      <c r="D7" s="84" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="3:4">
-      <c r="C7" s="141"/>
-      <c r="D7" s="145" t="s">
+    <row r="8" spans="3:4">
+      <c r="C8" s="176"/>
+      <c r="D8" s="85" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4">
+      <c r="C9" s="176"/>
+      <c r="D9" s="85" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" ht="28.5">
+      <c r="C10" s="176"/>
+      <c r="D10" s="84" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="3:4">
-      <c r="C8" s="141"/>
-      <c r="D8" s="146" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="9" spans="3:4">
-      <c r="C9" s="141"/>
-      <c r="D9" s="146" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="10" spans="3:4" ht="28.5">
-      <c r="C10" s="141"/>
-      <c r="D10" s="145" t="s">
+    <row r="11" spans="3:4">
+      <c r="C11" s="176"/>
+      <c r="D11" s="84" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="11" spans="3:4">
-      <c r="C11" s="141"/>
-      <c r="D11" s="145" t="s">
+    <row r="12" spans="3:4">
+      <c r="C12" s="176"/>
+      <c r="D12" s="84" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="12" spans="3:4">
-      <c r="C12" s="141"/>
-      <c r="D12" s="145" t="s">
+    <row r="13" spans="3:4">
+      <c r="C13" s="176"/>
+      <c r="D13" s="84" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="13" spans="3:4">
-      <c r="C13" s="141"/>
-      <c r="D13" s="145" t="s">
-        <v>150</v>
-      </c>
-    </row>
     <row r="14" spans="3:4" ht="14.65" thickBot="1">
-      <c r="C14" s="142"/>
-      <c r="D14" s="147" t="s">
+      <c r="C14" s="177"/>
+      <c r="D14" s="86" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="15" spans="3:4" ht="28.9" thickBot="1">
       <c r="C15" s="79" t="s">
-        <v>170</v>
-      </c>
-      <c r="D15" s="148" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="16" spans="3:4" ht="28.9" thickBot="1">
+        <v>168</v>
+      </c>
+      <c r="D15" s="87" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4" ht="14.65" thickBot="1">
       <c r="C16" s="79" t="s">
-        <v>176</v>
-      </c>
-      <c r="D16" s="148" t="s">
-        <v>174</v>
+        <v>173</v>
+      </c>
+      <c r="D16" s="87" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -4398,8 +4384,10 @@
     <hyperlink ref="D5" r:id="rId9" display="https://github.com/google-research/albert" xr:uid="{5CD3D314-4FDF-423A-933C-A498E8506086}"/>
     <hyperlink ref="D9" r:id="rId10" display="https://github.com/openai/gpt-3" xr:uid="{CC773540-C087-479A-9463-37828577AC6A}"/>
     <hyperlink ref="D8" r:id="rId11" display="https://github.com/openai/gpt-2" xr:uid="{81F2AF74-0C8D-4DA3-80FC-6EC27D522436}"/>
+    <hyperlink ref="D16" r:id="rId12" xr:uid="{1B042508-B9E2-4218-B27A-3A6A657B6437}"/>
+    <hyperlink ref="D15" r:id="rId13" xr:uid="{262A4500-C69C-4B56-B960-CA614D2CB3F9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>